--- a/week06_codecamp_presentations/demo-eval-for-teams.xlsx
+++ b/week06_codecamp_presentations/demo-eval-for-teams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk.sharepoint.com/sites/46120PiWEInternal/Delte dokumenter/General/grading/codecamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2dafb937b010e69a/Desktop/old_backup/School/Exchange/Wind Programming/46120-PiWE/week06_codecamp_presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_BA2380DAACAD197118EFB2F3622C0A81080501E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C73F6F-1BC8-4904-8DEF-10128D76E00C}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_BA2380DAACAD197118EFB2F3622C0A81080501E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8BD774-227D-477A-ADBD-026CD5945E90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Category</t>
   </si>
@@ -87,15 +87,6 @@
     <t>Main script runtime</t>
   </si>
   <si>
-    <t>Team 1 (name)</t>
-  </si>
-  <si>
-    <t>Team 2 (name)</t>
-  </si>
-  <si>
-    <t>Team 3 (name)</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -118,6 +109,60 @@
   </si>
   <si>
     <t>Excellent</t>
+  </si>
+  <si>
+    <t>Team 1 (codeteam)</t>
+  </si>
+  <si>
+    <t>don't see how you couldve made it cleaner</t>
+  </si>
+  <si>
+    <t>well done</t>
+  </si>
+  <si>
+    <t>Team 3 (codefusion)</t>
+  </si>
+  <si>
+    <t>Team 2 (lightning mcteam)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good use of inline comments very clear </t>
+  </si>
+  <si>
+    <t>1 TI</t>
+  </si>
+  <si>
+    <t>&lt;5mins</t>
+  </si>
+  <si>
+    <t>Easy to understand</t>
+  </si>
+  <si>
+    <t>Very understandable</t>
+  </si>
+  <si>
+    <t>I don't see how you couldve made it cleaner</t>
+  </si>
+  <si>
+    <t>good inline commenting but remember to use docstrings with a summary, inputs and outputs</t>
+  </si>
+  <si>
+    <t>Inconsistent use of docstrings try to standardise a summary, inputs and outputs</t>
+  </si>
+  <si>
+    <t>Clean folder structure</t>
+  </si>
+  <si>
+    <t>pretty much bang on 5 mins</t>
+  </si>
+  <si>
+    <t>3 TIs</t>
+  </si>
+  <si>
+    <t>Very thorough use of functions which does mean that I'm not sure how your code runs by looking but I'm sure it's in the readme</t>
+  </si>
+  <si>
+    <t>Overall good commenting but put your default file path names at the top of the document together</t>
   </si>
 </sst>
 </file>
@@ -293,25 +338,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -321,6 +359,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,24 +649,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,55 +674,55 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12" t="s">
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D4" s="3"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="8"/>
+      <c r="S4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9"/>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -686,163 +730,229 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="12"/>
       <c r="S5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="13"/>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="13"/>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="14"/>
+      <c r="S8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="16"/>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="16"/>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
-      <c r="S8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6" t="s">
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6" t="s">
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -850,37 +960,36 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6" t="s">
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="17"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -889,7 +998,7 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D19 F5:F19 H5:H19" xr:uid="{98D6ACD6-3225-430E-B99E-5C33FDF86D90}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F19 H5:H19 D5:D19" xr:uid="{98D6ACD6-3225-430E-B99E-5C33FDF86D90}">
       <formula1>$S$3:$S$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -898,26 +1007,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32e2fcb7-33f7-4889-999c-af43743a67a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cbbd76ae-605b-416b-a338-ccaf8defbca3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BF6EBA3D7368C049AAD42D1CECE7D3BA" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="930929da4eb7a147584ad882570f9441">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32e2fcb7-33f7-4889-999c-af43743a67a2" xmlns:ns3="cbbd76ae-605b-416b-a338-ccaf8defbca3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64eed0a21e62a4b12975bf52569eb212" ns2:_="" ns3:_="">
     <xsd:import namespace="32e2fcb7-33f7-4889-999c-af43743a67a2"/>
@@ -1118,26 +1207,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485D2EAB-1034-41E0-BF24-18FF96BDAF5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="32e2fcb7-33f7-4889-999c-af43743a67a2"/>
-    <ds:schemaRef ds:uri="cbbd76ae-605b-416b-a338-ccaf8defbca3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348131FC-90EE-478C-84D4-9DD6F5F292C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32e2fcb7-33f7-4889-999c-af43743a67a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cbbd76ae-605b-416b-a338-ccaf8defbca3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09AB4EE9-A532-42B8-8061-E0D231CF380C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1154,4 +1244,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348131FC-90EE-478C-84D4-9DD6F5F292C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485D2EAB-1034-41E0-BF24-18FF96BDAF5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="32e2fcb7-33f7-4889-999c-af43743a67a2"/>
+    <ds:schemaRef ds:uri="cbbd76ae-605b-416b-a338-ccaf8defbca3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/week06_codecamp_presentations/demo-eval-for-teams.xlsx
+++ b/week06_codecamp_presentations/demo-eval-for-teams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk.sharepoint.com/sites/46120PiWEInternal/Delte dokumenter/General/grading/codecamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rink\git\G-PiWE\46120-PiWE\week06_codecamp_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_BA2380DAACAD197118EFB2F3622C0A81080501E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C73F6F-1BC8-4904-8DEF-10128D76E00C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45180FA7-05B4-4035-AC09-35B7C133CD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -157,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -293,25 +299,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,6 +321,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -606,7 +614,7 @@
   <dimension ref="A2:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,36 +638,36 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="S3" t="s">
@@ -668,77 +676,75 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8"/>
       <c r="S4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="12"/>
       <c r="S5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="13"/>
       <c r="S6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="13"/>
       <c r="S7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="14"/>
       <c r="S8" t="s">
         <v>28</v>
       </c>
@@ -746,103 +752,99 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="17"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -850,37 +852,36 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="17"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -898,6 +899,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="32e2fcb7-33f7-4889-999c-af43743a67a2">
@@ -906,15 +916,6 @@
     <TaxCatchAll xmlns="cbbd76ae-605b-416b-a338-ccaf8defbca3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,20 +1120,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348131FC-90EE-478C-84D4-9DD6F5F292C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485D2EAB-1034-41E0-BF24-18FF96BDAF5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="32e2fcb7-33f7-4889-999c-af43743a67a2"/>
     <ds:schemaRef ds:uri="cbbd76ae-605b-416b-a338-ccaf8defbca3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348131FC-90EE-478C-84D4-9DD6F5F292C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
